--- a/materials/AI/jelenlet/jelenlet_2025.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0AB900-3D15-46DA-9A21-4B77811F0E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD878FA-FA57-4865-9F4B-D687E11C0605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -462,6 +462,12 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -479,12 +485,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -513,7 +513,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q21" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A2:Q20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025.02.20" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.02.20])</totalsRowFormula>
     </tableColumn>
@@ -553,11 +553,11 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025.05.15" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(Táblázat3[ZH 1])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
@@ -868,7 +868,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -1167,7 +1167,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="24">
         <f ca="1">NOW()</f>
-        <v>45721.709416087964</v>
+        <v>45736.403309606481</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1213,7 +1213,7 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/materials/AI/jelenlet/jelenlet_2025.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD878FA-FA57-4865-9F4B-D687E11C0605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40552D87-6D09-4086-BBF1-4FC4069F6522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
   <si>
     <t>Név</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>2025.05.15</t>
+  </si>
+  <si>
+    <t>PP</t>
   </si>
 </sst>
 </file>
@@ -457,15 +460,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -485,6 +485,15 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -510,10 +519,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q21" totalsRowCount="1" headerRowDxfId="5">
-  <autoFilter ref="A2:Q20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="4" totalsRowDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:R21" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="A2:R20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="6" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025.02.20" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.02.20])</totalsRowFormula>
     </tableColumn>
@@ -553,13 +562,14 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025.05.15" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="5">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
       <totalsRowFormula>AVERAGE(Táblázat3[ZH 1])</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="15" xr3:uid="{7D721E09-50DB-47FF-8B50-ED7ECC62F704}" name="PP" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -868,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +1002,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="22">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1006,7 +1016,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="22">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1062,7 +1072,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="22">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1090,7 +1100,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="22">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1157,7 +1167,7 @@
       <c r="E20" s="10"/>
       <c r="G20" s="22">
         <f>VLOOKUP(A20,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1167,7 +1177,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="24">
         <f ca="1">NOW()</f>
-        <v>45736.403309606481</v>
+        <v>45752.522006712963</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1211,13 +1221,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,9 +1238,10 @@
     <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="27">
         <v>2025</v>
       </c>
@@ -1250,8 +1261,9 @@
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
       <c r="Q1" s="27"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="27"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1301,10 +1313,13 @@
         <v>9</v>
       </c>
       <c r="Q2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -1354,12 +1369,13 @@
       <c r="P3" s="19">
         <v>0</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -1409,12 +1425,15 @@
       <c r="P4" s="19">
         <v>0</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="19">
+        <v>1</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
@@ -1464,12 +1483,13 @@
       <c r="P5" s="19">
         <v>0</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
@@ -1519,12 +1539,13 @@
       <c r="P6" s="19">
         <v>0</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
@@ -1574,12 +1595,13 @@
       <c r="P7" s="19">
         <v>0</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -1599,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1624,17 +1646,18 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="19">
         <v>0</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>26</v>
       </c>
@@ -1657,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1679,17 +1702,20 @@
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="19">
         <v>0</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="19">
+        <v>1</v>
+      </c>
+      <c r="R9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
@@ -1739,12 +1765,15 @@
       <c r="P10" s="19">
         <v>0</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>30</v>
       </c>
@@ -1794,12 +1823,13 @@
       <c r="P11" s="19">
         <v>0</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
@@ -1849,12 +1879,13 @@
       <c r="P12" s="19">
         <v>0</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1899,17 +1930,18 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="19">
         <v>0</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
@@ -1959,12 +1991,15 @@
       <c r="P14" s="19">
         <v>0</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>38</v>
       </c>
@@ -1981,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2009,17 +2044,18 @@
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="19">
         <v>0</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
@@ -2069,12 +2105,13 @@
       <c r="P16" s="19">
         <v>0</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
@@ -2124,12 +2161,13 @@
       <c r="P17" s="19">
         <v>0</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>44</v>
       </c>
@@ -2179,12 +2217,13 @@
       <c r="P18" s="19">
         <v>0</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2234,11 +2273,12 @@
       <c r="P19" s="19">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="19"/>
+      <c r="R19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2261,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2283,16 +2323,19 @@
       </c>
       <c r="O20">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="19">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="R20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
@@ -2314,15 +2357,15 @@
       </c>
       <c r="F21">
         <f>SUM(Táblázat3[2025.03.20])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f>SUM(Táblázat3[2025.03.27])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <f>SUM(Táblázat3[2025.04.03])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <f>SUM(Táblázat3[2025.04.10])</f>
@@ -2350,16 +2393,17 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P21" s="19">
         <f>AVERAGE(Táblázat3[ZH 1])</f>
         <v>0</v>
       </c>
+      <c r="Q21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/materials/AI/jelenlet/jelenlet_2025.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40552D87-6D09-4086-BBF1-4FC4069F6522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99704E8-7D90-4620-A1F4-6C3956FD82F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -878,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="22">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -974,7 +974,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="22">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1016,7 +1016,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="22">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1072,7 +1072,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="22">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1177,7 +1177,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="24">
         <f ca="1">NOW()</f>
-        <v>45752.522006712963</v>
+        <v>45765.654010416663</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1227,7 +1227,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="19">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="O6">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="19">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="19">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="19">
         <v>0</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J21">
         <f>SUM(Táblázat3[2025.04.17])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <f>SUM(Táblázat3[2025.04.24])</f>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P21" s="19">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/AI/jelenlet/jelenlet_2025.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99704E8-7D90-4620-A1F4-6C3956FD82F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E1836-C8D9-454E-8CB7-3EBD14798A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -468,6 +468,15 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -485,15 +494,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -522,7 +522,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:R21" totalsRowCount="1" headerRowDxfId="7">
   <autoFilter ref="A2:R20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="6" totalsRowDxfId="5"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025.02.20" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.02.20])</totalsRowFormula>
     </tableColumn>
@@ -562,14 +562,14 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025.05.15" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="4">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
+    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(Táblázat3[ZH 1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7D721E09-50DB-47FF-8B50-ED7ECC62F704}" name="PP" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{7D721E09-50DB-47FF-8B50-ED7ECC62F704}" name="PP" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -878,7 +878,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1177,7 +1177,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="24">
         <f ca="1">NOW()</f>
-        <v>45765.654010416663</v>
+        <v>45769.39150636574</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1223,11 +1223,11 @@
   </sheetPr>
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1595,9 @@
       <c r="P7" s="19">
         <v>0</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="19">
+        <v>1</v>
+      </c>
       <c r="R7" s="16" t="s">
         <v>23</v>
       </c>
@@ -1766,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="19">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R10" s="16" t="s">
         <v>29</v>
@@ -1823,7 +1825,9 @@
       <c r="P11" s="19">
         <v>0</v>
       </c>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="19">
+        <v>1</v>
+      </c>
       <c r="R11" s="16" t="s">
         <v>31</v>
       </c>
@@ -2217,7 +2221,9 @@
       <c r="P18" s="19">
         <v>0</v>
       </c>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="19">
+        <v>1</v>
+      </c>
       <c r="R18" s="16" t="s">
         <v>45</v>
       </c>

--- a/materials/AI/jelenlet/jelenlet_2025.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E1836-C8D9-454E-8CB7-3EBD14798A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895B27C7-F4FB-4ECD-B737-FEE5F63BDB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -468,15 +468,6 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -494,6 +485,15 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -522,7 +522,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:R21" totalsRowCount="1" headerRowDxfId="7">
   <autoFilter ref="A2:R20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="6" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025.02.20" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.02.20])</totalsRowFormula>
     </tableColumn>
@@ -562,14 +562,14 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025.05.15" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="5">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
       <totalsRowFormula>AVERAGE(Táblázat3[ZH 1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7D721E09-50DB-47FF-8B50-ED7ECC62F704}" name="PP" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{7D721E09-50DB-47FF-8B50-ED7ECC62F704}" name="PP" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -878,7 +878,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -960,7 +960,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="22">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1072,7 +1072,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="22">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1086,7 +1086,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="22">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1177,7 +1177,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="24">
         <f ca="1">NOW()</f>
-        <v>45769.39150636574</v>
+        <v>45776.776565162036</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1223,11 +1223,11 @@
   </sheetPr>
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="19">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" s="19">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="19">
         <v>0</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="K21">
         <f>SUM(Táblázat3[2025.04.24])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <f>SUM(Táblázat3[2025.05.01])</f>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P21" s="19">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/AI/jelenlet/jelenlet_2025.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895B27C7-F4FB-4ECD-B737-FEE5F63BDB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1C318-BE4B-4C6C-9164-ED3D2022218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -960,7 +960,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="22">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1177,7 +1177,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="24">
         <f ca="1">NOW()</f>
-        <v>45776.776565162036</v>
+        <v>45786.625013773148</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1227,7 +1227,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1369,9 @@
       <c r="P3" s="19">
         <v>0</v>
       </c>
-      <c r="Q3" s="19"/>
+      <c r="Q3" s="19">
+        <v>1</v>
+      </c>
       <c r="R3" s="16" t="s">
         <v>15</v>
       </c>
@@ -1471,14 +1473,14 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="19">
         <v>0</v>
@@ -2165,7 +2167,9 @@
       <c r="P17" s="19">
         <v>0</v>
       </c>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="19">
+        <v>1</v>
+      </c>
       <c r="R17" s="16" t="s">
         <v>43</v>
       </c>
@@ -2279,7 +2283,9 @@
       <c r="P19" s="19">
         <v>0</v>
       </c>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="19">
+        <v>1</v>
+      </c>
       <c r="R19" t="s">
         <v>48</v>
       </c>
@@ -2391,7 +2397,7 @@
       </c>
       <c r="M21">
         <f>SUM(Táblázat3[2025.05.08])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <f>SUM(Táblázat3[2025.05.15])</f>
@@ -2399,7 +2405,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P21" s="19">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/AI/jelenlet/jelenlet_2025.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1C318-BE4B-4C6C-9164-ED3D2022218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66E245B-A945-4F53-842B-547C48BC1B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>Név</t>
   </si>
@@ -75,12 +75,6 @@
     <t>CHEKSUM</t>
   </si>
   <si>
-    <t>Jegy</t>
-  </si>
-  <si>
-    <t>Pont</t>
-  </si>
-  <si>
     <t>Balic Erik Gabor</t>
   </si>
   <si>
@@ -229,6 +223,36 @@
   </si>
   <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>ZH csoport</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Szorgalmi pont</t>
+  </si>
+  <si>
+    <t>ZH pont</t>
+  </si>
+  <si>
+    <t>Összes Pont</t>
+  </si>
+  <si>
+    <t>2025.05.22</t>
+  </si>
+  <si>
+    <t>Átlagos Hiányzás</t>
+  </si>
+  <si>
+    <t>ZH Átlag</t>
+  </si>
+  <si>
+    <t>Össz átlag</t>
   </si>
 </sst>
 </file>
@@ -305,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -379,11 +403,238 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -432,15 +683,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -454,13 +703,71 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
@@ -485,6 +792,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -519,10 +829,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:R21" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="A2:R20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="6" totalsRowDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:T21" totalsRowCount="1" headerRowDxfId="9">
+  <autoFilter ref="A2:T20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="8" totalsRowDxfId="3"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025.02.20" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.02.20])</totalsRowFormula>
     </tableColumn>
@@ -562,14 +872,18 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025.05.15" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="18" xr3:uid="{3BB2152B-C50A-4707-8533-A32F64E1B0CD}" name="2025.05.22" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Táblázat3[2025.05.22])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="7">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(Táblázat3[[#Totals],[2025.02.20]:[2025.05.22]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
+    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(Táblázat3[ZH 1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7D721E09-50DB-47FF-8B50-ED7ECC62F704}" name="PP" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{7D721E09-50DB-47FF-8B50-ED7ECC62F704}" name="PP" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{8BA21EE6-9C7D-4474-8D41-D45914DEEAB4}" name="ZH csoport" dataDxfId="4" totalsRowDxfId="0"/>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -879,7 +1193,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,251 +1237,251 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <f>VLOOKUP(A7,Táblázat3[],15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <f>VLOOKUP(A12,Táblázat3[],15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
       <c r="E13" s="9"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
       <c r="E15" s="9"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
       <c r="E17" s="9"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <f>VLOOKUP(A17,Táblázat3[],15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
       <c r="E18" s="9"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
       <c r="E19" s="9"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <f>VLOOKUP(A19,Táblázat3[],15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <f>VLOOKUP(A20,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1177,7 +1491,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="24">
         <f ca="1">NOW()</f>
-        <v>45786.625013773148</v>
+        <v>45800.711777199074</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1221,13 +1535,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,12 +1550,13 @@
     <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="27">
         <v>2025</v>
       </c>
@@ -1262,183 +1577,203 @@
       <c r="P1" s="27"/>
       <c r="Q1" s="27"/>
       <c r="R1" s="27"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="O2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="S2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="T2" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>7</v>
+      </c>
+      <c r="R3" s="19">
+        <v>1</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
         <v>6</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>1</v>
-      </c>
-      <c r="P3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>1</v>
-      </c>
-      <c r="R3" s="16" t="s">
+      <c r="R4" s="19">
+        <v>1</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>1</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -1479,136 +1814,158 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
         <v>2</v>
       </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="16" t="s">
+      <c r="Q5" s="19">
+        <v>5</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>4</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>8</v>
+      </c>
+      <c r="R7" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>1</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
@@ -1649,21 +2006,29 @@
         <v>0</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
         <v>2</v>
       </c>
-      <c r="P8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q8" s="19">
+        <v>4</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1705,196 +2070,222 @@
         <v>0</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
         <v>2</v>
       </c>
-      <c r="P9" s="19">
-        <v>0</v>
-      </c>
       <c r="Q9" s="19">
-        <v>1</v>
-      </c>
-      <c r="R9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="19">
+        <v>1</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>10</v>
+      </c>
+      <c r="R10" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
         <v>0</v>
       </c>
-      <c r="P10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="R10" s="16" t="s">
+      <c r="Q11" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="R11" s="19">
+        <v>1</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
         <v>0</v>
       </c>
-      <c r="P11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>1</v>
-      </c>
-      <c r="R11" s="16" t="s">
+      <c r="Q12" s="19">
+        <v>9</v>
+      </c>
+      <c r="R12" s="19">
+        <v>1</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="B13">
         <v>0</v>
       </c>
@@ -1935,80 +2326,94 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
         <v>3</v>
       </c>
-      <c r="P13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="16" t="s">
+      <c r="Q13" s="19">
+        <v>4</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>8</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>1</v>
-      </c>
-      <c r="P14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="B15">
         <v>0</v>
       </c>
@@ -2049,305 +2454,345 @@
         <v>0</v>
       </c>
       <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
         <v>2</v>
       </c>
-      <c r="P15" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="16" t="s">
+      <c r="Q15" s="19">
+        <v>7</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>1</v>
-      </c>
-      <c r="P16" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>9</v>
+      </c>
+      <c r="R17" s="19">
+        <v>1</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
         <v>0</v>
       </c>
-      <c r="P17" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>1</v>
-      </c>
-      <c r="R17" s="16" t="s">
+      <c r="Q18" s="19">
+        <v>7</v>
+      </c>
+      <c r="R18" s="19">
+        <v>1</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
         <v>0</v>
       </c>
-      <c r="P18" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>1</v>
-      </c>
-      <c r="R18" s="16" t="s">
+      <c r="Q19" s="19">
+        <v>9</v>
+      </c>
+      <c r="R19" s="19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>7</v>
+      </c>
+      <c r="R20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T20" t="s">
         <v>47</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f>SUM(Táblázat3[[#This Row],[2025.02.20]:[2025.05.15]])</f>
-        <v>1</v>
-      </c>
-      <c r="P20" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="R20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
@@ -2404,18 +2849,23 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>16</v>
-      </c>
-      <c r="P21" s="19">
+        <f>SUM(Táblázat3[2025.05.22])</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>AVERAGE(Táblázat3[[#Totals],[2025.02.20]:[2025.05.22]])</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="Q21" s="19">
         <f>AVERAGE(Táblázat3[ZH 1])</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="19"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2428,285 +2878,398 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519DC893-B0DC-46F4-94CF-5A135BDED5FB}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="C2" s="22">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42">
+        <f t="shared" ref="E2:E8" si="0">MIN(SUM(C2:D2),10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="C3" s="22">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="C4" s="22">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="C5" s="22">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="C6" s="22">
+        <v>8</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="42">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="C7" s="22">
+        <v>4</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="C8" s="22">
+        <v>6</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="C9" s="22">
+        <v>10</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="42">
+        <f>MIN(SUM(C9:D9),10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="C10" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42">
+        <f t="shared" ref="E10:E19" si="1">MIN(SUM(C10:D10),10)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="21">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="C11" s="22">
+        <v>9</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="42">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="C12" s="22">
+        <v>4</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="21">
-        <v>0</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="C13" s="22">
+        <v>8</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="42">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="C14" s="22">
+        <v>7</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="42">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="C15" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="42">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="21">
-        <v>0</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="C16" s="22">
+        <v>9</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1</v>
+      </c>
+      <c r="E16" s="42">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="21">
-        <v>0</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="C17" s="22">
+        <v>7</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+      <c r="E17" s="42">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="22">
+        <v>9</v>
+      </c>
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="42">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="B19" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0</v>
-      </c>
-      <c r="D19" s="21">
-        <v>0</v>
-      </c>
+      <c r="C19" s="30">
+        <v>7</v>
+      </c>
+      <c r="D19" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="43">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="34">
+        <f>AVERAGE(C2:C19)</f>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="45">
+        <f>AVERAGE(E2:E19)</f>
+        <v>7.583333333333333</v>
+      </c>
+      <c r="C22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="36">
+        <f>Táblázat3[[#Totals],[HIÁNYZÁS]]</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="C23" s="37"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
